--- a/600734-2.xlsx
+++ b/600734-2.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="现金流计划" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="资产负债表" sheetId="9" r:id="rId2"/>
+    <sheet name="资产负债表" sheetId="11" r:id="rId2"/>
     <sheet name="zx16b" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="利润表" sheetId="10" r:id="rId5"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="449">
   <si>
     <t>瑞安10-12地块资金运营计划表（万元）</t>
   </si>
@@ -1336,15 +1336,6 @@
     <t xml:space="preserve">卖出回购金融资产款 </t>
   </si>
   <si>
-    <t xml:space="preserve">吸收存款及同业存放 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">代理买卖证券款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">代理承销证券款 </t>
-  </si>
-  <si>
     <t xml:space="preserve">应付职工薪酬 </t>
   </si>
   <si>
@@ -1399,22 +1390,10 @@
     <t xml:space="preserve">长期借款 </t>
   </si>
   <si>
-    <t xml:space="preserve">应付债券 </t>
-  </si>
-  <si>
     <t xml:space="preserve">其中：优先股 </t>
   </si>
   <si>
     <t xml:space="preserve">永续债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">租赁负债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付职工薪酬 </t>
   </si>
   <si>
     <t xml:space="preserve">预计负债 </t>
@@ -2348,7 +2327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2968,9 +2947,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2992,9 +2968,48 @@
     <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3016,39 +3031,6 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3057,12 +3039,6 @@
     </xf>
     <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3404,21 +3380,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -4979,19 +4955,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="25.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5003,10 +4979,10 @@
       <c r="B1" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="226" t="s">
+      <c r="C1" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="226" t="s">
+      <c r="D1" s="225" t="s">
         <v>282</v>
       </c>
       <c r="E1" s="208" t="s">
@@ -5015,10 +4991,10 @@
       <c r="F1" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="226" t="s">
+      <c r="G1" s="225" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="226" t="s">
+      <c r="H1" s="225" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5038,7 +5014,7 @@
       <c r="E2" s="209" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="255" t="s">
+      <c r="F2" s="232" t="s">
         <v>284</v>
       </c>
       <c r="G2" s="215"/>
@@ -5124,9 +5100,9 @@
       <c r="G6" s="215"/>
       <c r="H6" s="215"/>
     </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1">
+    <row r="7" spans="1:8" ht="14.5">
       <c r="A7" s="213" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>284</v>
@@ -5134,7 +5110,7 @@
       <c r="C7" s="215"/>
       <c r="D7" s="215"/>
       <c r="E7" s="213" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F7" s="213" t="s">
         <v>284</v>
@@ -5289,8 +5265,12 @@
       <c r="F14" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
+      <c r="G14" s="214">
+        <v>35745466.630000003</v>
+      </c>
+      <c r="H14" s="214">
+        <v>28742985.23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="14.5">
       <c r="A15" s="213" t="s">
@@ -5307,10 +5287,14 @@
       <c r="F15" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.5">
+      <c r="G15" s="214">
+        <v>32404706.449999999</v>
+      </c>
+      <c r="H15" s="214">
+        <v>185342945.19999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="213" t="s">
         <v>297</v>
       </c>
@@ -5329,8 +5313,12 @@
       <c r="F16" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
+      <c r="G16" s="214">
+        <v>261293127.62</v>
+      </c>
+      <c r="H16" s="214">
+        <v>128131691.98</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="14.5">
       <c r="A17" s="213" t="s">
@@ -5348,10 +5336,10 @@
         <v>284</v>
       </c>
       <c r="G17" s="214">
-        <v>35745466.630000003</v>
+        <v>34053494.630000003</v>
       </c>
       <c r="H17" s="214">
-        <v>28742985.23</v>
+        <v>7516092.2599999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.5">
@@ -5363,17 +5351,17 @@
       </c>
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
-      <c r="E18" s="213" t="s">
+      <c r="E18" s="216" t="s">
         <v>346</v>
       </c>
       <c r="F18" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G18" s="214">
-        <v>32404706.449999999</v>
+        <v>240900</v>
       </c>
       <c r="H18" s="214">
-        <v>185342945.19999999</v>
+        <v>240900</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.5">
@@ -5391,14 +5379,10 @@
       <c r="F19" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G19" s="214">
-        <v>261293127.62</v>
-      </c>
-      <c r="H19" s="214">
-        <v>128131691.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="213" t="s">
         <v>301</v>
       </c>
@@ -5417,12 +5401,8 @@
       <c r="F20" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G20" s="214">
-        <v>34053494.630000003</v>
-      </c>
-      <c r="H20" s="214">
-        <v>7516092.2599999998</v>
-      </c>
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
     </row>
     <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="213" t="s">
@@ -5433,18 +5413,14 @@
       </c>
       <c r="C21" s="215"/>
       <c r="D21" s="215"/>
-      <c r="E21" s="216" t="s">
+      <c r="E21" s="213" t="s">
         <v>349</v>
       </c>
       <c r="F21" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="214">
-        <v>240900</v>
-      </c>
-      <c r="H21" s="214">
-        <v>240900</v>
-      </c>
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
     </row>
     <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="213" t="s">
@@ -5461,8 +5437,12 @@
       <c r="F22" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
+      <c r="G22" s="214">
+        <v>29432656.32</v>
+      </c>
+      <c r="H22" s="214">
+        <v>595970703.59000003</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="14.5">
       <c r="A23" s="213" t="s">
@@ -5483,10 +5463,12 @@
       <c r="F23" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="215"/>
+      <c r="G23" s="214">
+        <v>40097314.840000004</v>
+      </c>
       <c r="H23" s="215"/>
     </row>
-    <row r="24" spans="1:8" ht="14.5">
+    <row r="24" spans="1:8">
       <c r="A24" s="213" t="s">
         <v>305</v>
       </c>
@@ -5499,16 +5481,20 @@
       <c r="D24" s="214">
         <v>6437498.0899999999</v>
       </c>
-      <c r="E24" s="213" t="s">
+      <c r="E24" s="222" t="s">
         <v>352</v>
       </c>
       <c r="F24" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="214">
+        <v>3009071180.7199998</v>
+      </c>
+      <c r="H24" s="214">
+        <v>4583407497.1300001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.5">
       <c r="A25" s="222" t="s">
         <v>306</v>
       </c>
@@ -5521,18 +5507,14 @@
       <c r="D25" s="214">
         <v>5327209547.8299999</v>
       </c>
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="209" t="s">
         <v>353</v>
       </c>
-      <c r="F25" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="214">
-        <v>29432656.32</v>
-      </c>
-      <c r="H25" s="214">
-        <v>595970703.59000003</v>
-      </c>
+      <c r="F25" s="217" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
     </row>
     <row r="26" spans="1:8" ht="14.5">
       <c r="A26" s="209" t="s">
@@ -5549,9 +5531,7 @@
       <c r="F26" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="214">
-        <v>40097314.840000004</v>
-      </c>
+      <c r="G26" s="215"/>
       <c r="H26" s="215"/>
     </row>
     <row r="27" spans="1:8" ht="14.5">
@@ -5563,17 +5543,15 @@
       </c>
       <c r="C27" s="215"/>
       <c r="D27" s="215"/>
-      <c r="E27" s="222" t="s">
+      <c r="E27" s="213" t="s">
         <v>355</v>
       </c>
       <c r="F27" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G27" s="214">
-        <v>3009071180.7199998</v>
-      </c>
+      <c r="G27" s="215"/>
       <c r="H27" s="214">
-        <v>4583407497.1300001</v>
+        <v>64300000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.5">
@@ -5585,14 +5563,18 @@
       </c>
       <c r="C28" s="215"/>
       <c r="D28" s="215"/>
-      <c r="E28" s="209" t="s">
-        <v>356</v>
-      </c>
-      <c r="F28" s="217" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
+      <c r="E28" s="213" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="214">
+        <v>8363282.1200000001</v>
+      </c>
+      <c r="H28" s="214">
+        <v>234002.42</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="14.5">
       <c r="A29" s="213" t="s">
@@ -5606,13 +5588,17 @@
         <v>23677731.899999999</v>
       </c>
       <c r="E29" s="213" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F29" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
+      <c r="G29" s="214">
+        <v>67628600.290000007</v>
+      </c>
+      <c r="H29" s="214">
+        <v>73273840.209999993</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="14.5">
       <c r="A30" s="213" t="s">
@@ -5624,14 +5610,16 @@
       <c r="C30" s="215"/>
       <c r="D30" s="215"/>
       <c r="E30" s="213" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F30" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G30" s="215"/>
+      <c r="G30" s="214">
+        <v>1455288.83</v>
+      </c>
       <c r="H30" s="214">
-        <v>64300000</v>
+        <v>5180420.8</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.5">
@@ -5644,7 +5632,7 @@
       <c r="C31" s="215"/>
       <c r="D31" s="215"/>
       <c r="E31" s="213" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F31" s="213" t="s">
         <v>284</v>
@@ -5652,7 +5640,7 @@
       <c r="G31" s="215"/>
       <c r="H31" s="215"/>
     </row>
-    <row r="32" spans="1:8" ht="14.5">
+    <row r="32" spans="1:8">
       <c r="A32" s="213" t="s">
         <v>313</v>
       </c>
@@ -5665,16 +5653,20 @@
       <c r="D32" s="214">
         <v>188124181.38</v>
       </c>
-      <c r="E32" s="213" t="s">
-        <v>360</v>
+      <c r="E32" s="222" t="s">
+        <v>362</v>
       </c>
       <c r="F32" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.5">
+      <c r="G32" s="214">
+        <v>77447171.239999995</v>
+      </c>
+      <c r="H32" s="214">
+        <v>142988263.43000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="213" t="s">
         <v>314</v>
       </c>
@@ -5687,14 +5679,18 @@
       <c r="D33" s="214">
         <v>53566293.409999996</v>
       </c>
-      <c r="E33" s="216" t="s">
-        <v>361</v>
+      <c r="E33" s="222" t="s">
+        <v>363</v>
       </c>
       <c r="F33" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
+      <c r="G33" s="214">
+        <v>3086518351.96</v>
+      </c>
+      <c r="H33" s="214">
+        <v>4726395760.5600004</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="14.5">
       <c r="A34" s="213" t="s">
@@ -5705,10 +5701,10 @@
       </c>
       <c r="C34" s="215"/>
       <c r="D34" s="215"/>
-      <c r="E34" s="213" t="s">
-        <v>362</v>
-      </c>
-      <c r="F34" s="213" t="s">
+      <c r="E34" s="209" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="217" t="s">
         <v>284</v>
       </c>
       <c r="G34" s="215"/>
@@ -5726,13 +5722,17 @@
       </c>
       <c r="D35" s="215"/>
       <c r="E35" s="213" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F35" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
+      <c r="G35" s="214">
+        <v>622372316</v>
+      </c>
+      <c r="H35" s="214">
+        <v>623515807</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="14.5">
       <c r="A36" s="213" t="s">
@@ -5748,7 +5748,7 @@
         <v>252327574.38</v>
       </c>
       <c r="E36" s="213" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F36" s="213" t="s">
         <v>284</v>
@@ -5756,7 +5756,7 @@
       <c r="G36" s="215"/>
       <c r="H36" s="215"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="14.5">
       <c r="A37" s="213" t="s">
         <v>318</v>
       </c>
@@ -5770,17 +5770,13 @@
         <v>260803802.97999999</v>
       </c>
       <c r="E37" s="213" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F37" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="214">
-        <v>8363282.1200000001</v>
-      </c>
-      <c r="H37" s="214">
-        <v>234002.42</v>
-      </c>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
     </row>
     <row r="38" spans="1:8" ht="14.5">
       <c r="A38" s="213" t="s">
@@ -5791,18 +5787,14 @@
       </c>
       <c r="C38" s="215"/>
       <c r="D38" s="215"/>
-      <c r="E38" s="213" t="s">
-        <v>366</v>
+      <c r="E38" s="216" t="s">
+        <v>357</v>
       </c>
       <c r="F38" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="214">
-        <v>67628600.290000007</v>
-      </c>
-      <c r="H38" s="214">
-        <v>73273840.209999993</v>
-      </c>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
     </row>
     <row r="39" spans="1:8" ht="14.5">
       <c r="A39" s="213" t="s">
@@ -5820,10 +5812,10 @@
         <v>284</v>
       </c>
       <c r="G39" s="214">
-        <v>1455288.83</v>
+        <v>2078156372.6800001</v>
       </c>
       <c r="H39" s="214">
-        <v>5180420.8</v>
+        <v>2091171752.8900001</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.5">
@@ -5853,20 +5845,20 @@
       </c>
       <c r="C41" s="215"/>
       <c r="D41" s="215"/>
-      <c r="E41" s="222" t="s">
+      <c r="E41" s="213" t="s">
         <v>369</v>
       </c>
       <c r="F41" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G41" s="214">
-        <v>77447171.239999995</v>
+        <v>-15751238.83</v>
       </c>
       <c r="H41" s="214">
-        <v>142988263.43000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>1508416.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.5">
       <c r="A42" s="213" t="s">
         <v>323</v>
       </c>
@@ -5879,18 +5871,14 @@
       <c r="D42" s="214">
         <v>63405749.630000003</v>
       </c>
-      <c r="E42" s="222" t="s">
+      <c r="E42" s="213" t="s">
         <v>370</v>
       </c>
       <c r="F42" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="214">
-        <v>3086518351.96</v>
-      </c>
-      <c r="H42" s="214">
-        <v>4726395760.5600004</v>
-      </c>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
     </row>
     <row r="43" spans="1:8" ht="14.5">
       <c r="A43" s="218" t="s">
@@ -5901,14 +5889,18 @@
       </c>
       <c r="C43" s="219"/>
       <c r="D43" s="219"/>
-      <c r="E43" s="209" t="s">
+      <c r="E43" s="213" t="s">
         <v>371</v>
       </c>
-      <c r="F43" s="217" t="s">
-        <v>284</v>
-      </c>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
+      <c r="F43" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="214">
+        <v>19062040.02</v>
+      </c>
+      <c r="H43" s="214">
+        <v>19062040.02</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="14.5">
       <c r="A44" s="218" t="s">
@@ -5927,14 +5919,10 @@
       <c r="F44" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G44" s="214">
-        <v>622372316</v>
-      </c>
-      <c r="H44" s="214">
-        <v>623515807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.5">
+      <c r="G44" s="215"/>
+      <c r="H44" s="215"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="218" t="s">
         <v>326</v>
       </c>
@@ -5953,10 +5941,14 @@
       <c r="F45" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="215"/>
-      <c r="H45" s="215"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.5">
+      <c r="G45" s="214">
+        <v>-3172094908.6500001</v>
+      </c>
+      <c r="H45" s="214">
+        <v>-125066537.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="218" t="s">
         <v>327</v>
       </c>
@@ -5970,13 +5962,17 @@
         <v>29391914.899999999</v>
       </c>
       <c r="E46" s="213" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="F46" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
+      <c r="G46" s="233">
+        <v>-468255418.77999997</v>
+      </c>
+      <c r="H46" s="233">
+        <v>2610191478.9400001</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="14.5">
       <c r="A47" s="218" t="s">
@@ -5991,13 +5987,15 @@
       <c r="D47" s="221">
         <v>79278074.200000003</v>
       </c>
-      <c r="E47" s="216" t="s">
-        <v>361</v>
+      <c r="E47" s="213" t="s">
+        <v>374</v>
       </c>
       <c r="F47" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G47" s="215"/>
+      <c r="G47" s="214">
+        <v>-89106.31</v>
+      </c>
       <c r="H47" s="215"/>
     </row>
     <row r="48" spans="1:8">
@@ -6013,20 +6011,20 @@
       <c r="D48" s="220">
         <v>2009377691.6700001</v>
       </c>
-      <c r="E48" s="213" t="s">
-        <v>374</v>
+      <c r="E48" s="209" t="s">
+        <v>436</v>
       </c>
       <c r="F48" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G48" s="214">
-        <v>2078156372.6800001</v>
+        <v>-468344525.08999997</v>
       </c>
       <c r="H48" s="214">
-        <v>2091171752.8900001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.5">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="224" t="s">
         <v>330</v>
       </c>
@@ -6039,138 +6037,22 @@
       <c r="D49" s="220">
         <v>7336587239.5</v>
       </c>
-      <c r="E49" s="213" t="s">
-        <v>375</v>
+      <c r="E49" s="209" t="s">
+        <v>437</v>
       </c>
       <c r="F49" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G49" s="215"/>
-      <c r="H49" s="215"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="E50" s="213" t="s">
-        <v>376</v>
-      </c>
-      <c r="F50" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="214">
-        <v>-15751238.83</v>
-      </c>
-      <c r="H50" s="214">
-        <v>1508416.92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.5">
-      <c r="E51" s="213" t="s">
-        <v>377</v>
-      </c>
-      <c r="F51" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51" s="215"/>
-      <c r="H51" s="215"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="E52" s="213" t="s">
-        <v>378</v>
-      </c>
-      <c r="F52" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G52" s="214">
-        <v>19062040.02</v>
-      </c>
-      <c r="H52" s="214">
-        <v>19062040.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.5">
-      <c r="E53" s="213" t="s">
-        <v>379</v>
-      </c>
-      <c r="F53" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G53" s="215"/>
-      <c r="H53" s="215"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="E54" s="213" t="s">
-        <v>380</v>
-      </c>
-      <c r="F54" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="214">
-        <v>-3172094908.6500001</v>
-      </c>
-      <c r="H54" s="214">
-        <v>-125066537.89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="E55" s="213" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G55" s="256">
-        <v>-468255418.77999997</v>
-      </c>
-      <c r="H55" s="256">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.5">
-      <c r="E56" s="213" t="s">
-        <v>381</v>
-      </c>
-      <c r="F56" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="214">
-        <v>-89106.31</v>
-      </c>
-      <c r="H56" s="215"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="E57" s="209" t="s">
-        <v>443</v>
-      </c>
-      <c r="F57" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G57" s="214">
-        <v>-468344525.08999997</v>
-      </c>
-      <c r="H57" s="214">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="E58" s="209" t="s">
-        <v>444</v>
-      </c>
-      <c r="F58" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G58" s="214">
+      <c r="G49" s="214">
         <v>2618173826.8699999</v>
       </c>
-      <c r="H58" s="214">
+      <c r="H49" s="214">
         <v>7336587239.5</v>
       </c>
-    </row>
-    <row r="102" spans="7:7">
-      <c r="G102" s="225"/>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6211,24 +6093,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="246" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="J1" s="147" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238"/>
-      <c r="I2" s="248" t="s">
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="250"/>
+      <c r="I2" s="242" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="148" t="s">
@@ -6280,7 +6162,7 @@
         <f>C8/120</f>
         <v>523.95291666666662</v>
       </c>
-      <c r="I3" s="249"/>
+      <c r="I3" s="243"/>
       <c r="J3" s="150" t="s">
         <v>244</v>
       </c>
@@ -6331,30 +6213,30 @@
       <c r="I4" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="251">
         <v>2020</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="240">
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252">
         <v>2021</v>
       </c>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="239">
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="251">
         <v>2022</v>
       </c>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="250">
+      <c r="S4" s="251"/>
+      <c r="T4" s="251"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="244">
         <v>2023</v>
       </c>
-      <c r="W4" s="250"/>
-      <c r="X4" s="250"/>
-      <c r="Y4" s="250"/>
+      <c r="W4" s="244"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="244"/>
       <c r="Z4" s="194" t="s">
         <v>128</v>
       </c>
@@ -7709,34 +7591,34 @@
       <c r="I25" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="251">
+      <c r="J25" s="245">
         <f>M24</f>
         <v>73857.622543749996</v>
       </c>
-      <c r="K25" s="251"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="251">
+      <c r="K25" s="245"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="245">
         <f>Q24</f>
         <v>14526.513518749984</v>
       </c>
-      <c r="O25" s="251"/>
-      <c r="P25" s="251"/>
-      <c r="Q25" s="251"/>
-      <c r="R25" s="251">
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="245">
         <f>U24</f>
         <v>-9797.8202562500119</v>
       </c>
-      <c r="S25" s="251"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="251"/>
-      <c r="V25" s="251">
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245">
         <f>Y24</f>
         <v>-2547.200875000015</v>
       </c>
-      <c r="W25" s="251"/>
-      <c r="X25" s="251"/>
-      <c r="Y25" s="251"/>
+      <c r="W25" s="245"/>
+      <c r="X25" s="245"/>
+      <c r="Y25" s="245"/>
       <c r="Z25" s="203"/>
       <c r="AA25" s="199"/>
     </row>
@@ -7942,22 +7824,22 @@
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
       <c r="M32" s="175"/>
-      <c r="N32" s="241">
+      <c r="N32" s="235">
         <f>J38</f>
         <v>0.13464359540011772</v>
       </c>
-      <c r="O32" s="241"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="242"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="236"/>
       <c r="AA32" s="66"/>
     </row>
     <row r="33" spans="2:26" s="62" customFormat="1">
@@ -7986,22 +7868,22 @@
       <c r="K33" s="177"/>
       <c r="L33" s="177"/>
       <c r="M33" s="177"/>
-      <c r="N33" s="243">
+      <c r="N33" s="237">
         <f>D55/J16</f>
         <v>0.37643646079829907</v>
       </c>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="244"/>
+      <c r="O33" s="237"/>
+      <c r="P33" s="237"/>
+      <c r="Q33" s="237"/>
+      <c r="R33" s="237"/>
+      <c r="S33" s="237"/>
+      <c r="T33" s="237"/>
+      <c r="U33" s="237"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="237"/>
+      <c r="Y33" s="237"/>
+      <c r="Z33" s="238"/>
     </row>
     <row r="34" spans="2:26" s="62" customFormat="1">
       <c r="B34" s="91" t="s">
@@ -8336,7 +8218,7 @@
       <c r="Z41" s="66"/>
     </row>
     <row r="42" spans="2:26" s="62" customFormat="1">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="239" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="119" t="s">
@@ -8386,7 +8268,7 @@
       <c r="Z42" s="66"/>
     </row>
     <row r="43" spans="2:26" s="62" customFormat="1">
-      <c r="B43" s="246"/>
+      <c r="B43" s="240"/>
       <c r="C43" s="122" t="s">
         <v>211</v>
       </c>
@@ -8428,7 +8310,7 @@
       <c r="Z43" s="66"/>
     </row>
     <row r="44" spans="2:26" s="62" customFormat="1">
-      <c r="B44" s="246"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="125" t="s">
         <v>212</v>
       </c>
@@ -8628,7 +8510,7 @@
       <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" s="62" customFormat="1">
-      <c r="B51" s="247" t="s">
+      <c r="B51" s="241" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="129" t="s">
@@ -8645,7 +8527,7 @@
       <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" s="62" customFormat="1">
-      <c r="B52" s="247"/>
+      <c r="B52" s="241"/>
       <c r="C52" s="129" t="s">
         <v>222</v>
       </c>
@@ -8853,6 +8735,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="N32:Z32"/>
     <mergeCell ref="N33:Z33"/>
     <mergeCell ref="B42:B44"/>
@@ -8863,11 +8750,6 @@
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8903,21 +8785,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A2" s="4" t="s">
@@ -10509,828 +10391,828 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="226" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" s="226" t="s">
-        <v>383</v>
+      <c r="C1" s="225" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="225" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="210" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="228">
+        <v>377</v>
+      </c>
+      <c r="B2" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="227">
         <v>1556985105.98</v>
       </c>
-      <c r="D2" s="228">
+      <c r="D2" s="227">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="227" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="228">
+      <c r="A3" s="226" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="227">
         <v>1556985105.98</v>
       </c>
-      <c r="D3" s="228">
+      <c r="D3" s="227">
         <v>6759565820.3599997</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="229" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
+      <c r="A4" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
     </row>
     <row r="5" spans="1:4" ht="14.5">
-      <c r="A5" s="229" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
+      <c r="A5" s="228" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
     </row>
     <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="229" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
+      <c r="A6" s="228" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="210" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="227">
+        <v>2043002451.71</v>
+      </c>
+      <c r="D7" s="227">
+        <v>6566582322.6300001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="226" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="227">
+        <v>1550744992.3399999</v>
+      </c>
+      <c r="D8" s="227">
+        <v>6116617137.5100002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.5">
+      <c r="A9" s="228" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.5">
+      <c r="A10" s="228" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.5">
+      <c r="A11" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="228" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.5">
+      <c r="A13" s="228" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.5">
+      <c r="A14" s="228" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="228">
-        <v>2043002451.71</v>
-      </c>
-      <c r="D7" s="228">
-        <v>6566582322.6300001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="227" t="s">
+      <c r="B14" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.5">
+      <c r="A15" s="228" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="228">
-        <v>1550744992.3399999</v>
-      </c>
-      <c r="D8" s="228">
-        <v>6116617137.5100002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5">
-      <c r="A9" s="229" t="s">
+      <c r="B15" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="228" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.5">
-      <c r="A10" s="229" t="s">
+      <c r="B16" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="227">
+        <v>11267529.220000001</v>
+      </c>
+      <c r="D16" s="227">
+        <v>21277357.489999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="228" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.5">
-      <c r="A11" s="229" t="s">
+      <c r="B17" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="227">
+        <v>50291080.619999997</v>
+      </c>
+      <c r="D17" s="227">
+        <v>44574538.140000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="228" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="229" t="s">
+      <c r="B18" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="227">
+        <v>160653154.13</v>
+      </c>
+      <c r="D18" s="227">
+        <v>151242477.75999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="228" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.5">
-      <c r="A13" s="229" t="s">
+      <c r="B19" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="227">
+        <v>133058192.36</v>
+      </c>
+      <c r="D19" s="227">
+        <v>124449915.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="228" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.5">
-      <c r="A14" s="229" t="s">
+      <c r="B20" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="227">
+        <v>136987503.03999999</v>
+      </c>
+      <c r="D20" s="227">
+        <v>108420895.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="228" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.5">
-      <c r="A15" s="229" t="s">
+      <c r="B21" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="227">
+        <v>148310424.03999999</v>
+      </c>
+      <c r="D21" s="227">
+        <v>145541924.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="227">
+        <v>14889300</v>
+      </c>
+      <c r="D22" s="227">
+        <v>13039887.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="226" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="229" t="s">
+      <c r="B23" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="227">
+        <v>31947302.16</v>
+      </c>
+      <c r="D23" s="227">
+        <v>83798457.420000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="228" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="228">
-        <v>11267529.220000001</v>
-      </c>
-      <c r="D16" s="228">
-        <v>21277357.489999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="229" t="s">
+      <c r="B24" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="227">
+        <v>834590.36</v>
+      </c>
+      <c r="D24" s="227">
+        <v>3551950.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="226" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="227">
+        <v>834590.36</v>
+      </c>
+      <c r="D25" s="227">
+        <v>1875733.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="226" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="228">
-        <v>50291080.619999997</v>
-      </c>
-      <c r="D17" s="228">
-        <v>44574538.140000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="229" t="s">
+      <c r="B26" s="254" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="226" t="s">
         <v>400</v>
       </c>
-      <c r="B18" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="228">
-        <v>160653154.13</v>
-      </c>
-      <c r="D18" s="228">
-        <v>151242477.75999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="229" t="s">
+      <c r="B27" s="254"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.5">
+      <c r="A28" s="228" t="s">
         <v>401</v>
       </c>
-      <c r="B19" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="228">
-        <v>133058192.36</v>
-      </c>
-      <c r="D19" s="228">
-        <v>124449915.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="229" t="s">
+      <c r="B28" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.5">
+      <c r="A29" s="228" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="228">
-        <v>136987503.03999999</v>
-      </c>
-      <c r="D20" s="228">
-        <v>108420895.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="229" t="s">
+      <c r="B29" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+    </row>
+    <row r="30" spans="1:4" ht="14" customHeight="1">
+      <c r="A30" s="226" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="227">
+        <v>-7564379.4900000002</v>
+      </c>
+      <c r="D30" s="229"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.5">
+      <c r="A31" s="228" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="228">
-        <v>148310424.03999999</v>
-      </c>
-      <c r="D21" s="228">
-        <v>145541924.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="229" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="228">
-        <v>14889300</v>
-      </c>
-      <c r="D22" s="228">
-        <v>13039887.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="227" t="s">
+      <c r="B31" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="227">
+        <v>-209517117.19999999</v>
+      </c>
+      <c r="D31" s="229"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="228" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="228">
-        <v>31947302.16</v>
-      </c>
-      <c r="D23" s="228">
-        <v>83798457.420000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="229" t="s">
+      <c r="B32" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="227">
+        <v>-2403205485.5900002</v>
+      </c>
+      <c r="D32" s="227">
+        <v>-492789569.94999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="228" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="228">
-        <v>834590.36</v>
-      </c>
-      <c r="D24" s="228">
-        <v>3551950.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="227" t="s">
-        <v>445</v>
-      </c>
-      <c r="B25" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="228">
-        <v>834590.36</v>
-      </c>
-      <c r="D25" s="228">
-        <v>1875733.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="227" t="s">
-        <v>406</v>
-      </c>
-      <c r="B26" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="227" t="s">
-        <v>407</v>
-      </c>
-      <c r="B27" s="253"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
-      <c r="A28" s="229" t="s">
-        <v>408</v>
-      </c>
-      <c r="B28" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.5">
-      <c r="A29" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="B29" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-    </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1">
-      <c r="A30" s="227" t="s">
-        <v>446</v>
-      </c>
-      <c r="B30" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="228">
-        <v>-7564379.4900000002</v>
-      </c>
-      <c r="D30" s="230"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.5">
-      <c r="A31" s="229" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="228">
-        <v>-209517117.19999999</v>
-      </c>
-      <c r="D31" s="230"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="229" t="s">
-        <v>411</v>
-      </c>
-      <c r="B32" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="228">
-        <v>-2403205485.5900002</v>
-      </c>
-      <c r="D32" s="228">
-        <v>-492789569.94999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="229" t="s">
-        <v>412</v>
-      </c>
-      <c r="B33" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="228">
+      <c r="B33" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="227">
         <v>-43943.58</v>
       </c>
-      <c r="D33" s="228">
+      <c r="D33" s="227">
         <v>74397.88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="210" t="s">
-        <v>413</v>
-      </c>
-      <c r="B34" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="228">
+        <v>406</v>
+      </c>
+      <c r="B34" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="227">
         <v>-3073566379.0700002</v>
       </c>
-      <c r="D34" s="228">
+      <c r="D34" s="227">
         <v>-212381266.66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="227" t="s">
-        <v>414</v>
-      </c>
-      <c r="B35" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="228">
+      <c r="A35" s="226" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="227">
         <v>14306304.34</v>
       </c>
-      <c r="D35" s="228">
+      <c r="D35" s="227">
         <v>513651.81</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="227" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="228">
+      <c r="A36" s="226" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="227">
         <v>23968132.079999998</v>
       </c>
-      <c r="D36" s="228">
+      <c r="D36" s="227">
         <v>1113558.0900000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="210" t="s">
-        <v>416</v>
-      </c>
-      <c r="B37" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="228">
+        <v>409</v>
+      </c>
+      <c r="B37" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="227">
         <v>-3083228206.8099999</v>
       </c>
-      <c r="D37" s="228">
+      <c r="D37" s="227">
         <v>-212981172.94</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="227" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="228">
+      <c r="A38" s="226" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="227">
         <v>-36110729.740000002</v>
       </c>
-      <c r="D38" s="228">
+      <c r="D38" s="227">
         <v>54174557.439999998</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="210" t="s">
-        <v>418</v>
-      </c>
-      <c r="B39" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="228">
+        <v>411</v>
+      </c>
+      <c r="B39" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="227">
         <v>-3047117477.0700002</v>
       </c>
-      <c r="D39" s="228">
+      <c r="D39" s="227">
         <v>-267155730.38</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="252" t="s">
-        <v>419</v>
-      </c>
-      <c r="B40" s="252"/>
-      <c r="C40" s="252"/>
-      <c r="D40" s="252"/>
+      <c r="A40" s="253" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="253"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="253"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="B41" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="228">
+      <c r="A41" s="226" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="227">
         <v>-3047092689.23</v>
       </c>
-      <c r="D41" s="228">
+      <c r="D41" s="227">
         <v>-267155730.38</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" customHeight="1">
-      <c r="A42" s="227" t="s">
-        <v>448</v>
-      </c>
-      <c r="B42" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="228">
+      <c r="A42" s="226" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="227">
         <v>-24787.84</v>
       </c>
-      <c r="D42" s="230"/>
+      <c r="D42" s="229"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="252" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="252"/>
+      <c r="A43" s="253" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="253"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="B44" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="228">
+      <c r="A44" s="226" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="227">
         <v>-3047028370.7600002</v>
       </c>
-      <c r="D44" s="228">
+      <c r="D44" s="227">
         <v>-267155730.38</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.5">
-      <c r="A45" s="229" t="s">
-        <v>421</v>
-      </c>
-      <c r="B45" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="228">
+      <c r="A45" s="228" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="227">
         <v>-89106.31</v>
       </c>
-      <c r="D45" s="230"/>
+      <c r="D45" s="229"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="210" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D46" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B47" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D47" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.5">
+      <c r="A48" s="228" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.5">
+      <c r="A49" s="226" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+    </row>
+    <row r="50" spans="1:4" ht="14.5">
+      <c r="A50" s="226" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+    </row>
+    <row r="51" spans="1:4" ht="14.5">
+      <c r="A51" s="226" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.5">
+      <c r="A52" s="226" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="228" t="s">
+        <v>421</v>
+      </c>
+      <c r="B53" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="227">
+        <v>-17259655.75</v>
+      </c>
+      <c r="D53" s="227">
+        <v>2563206.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.5">
+      <c r="A54" s="226" t="s">
         <v>422</v>
       </c>
-      <c r="B46" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="228">
+      <c r="B54" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="229"/>
+      <c r="D54" s="229"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.5">
+      <c r="A55" s="226" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="229"/>
+      <c r="D55" s="229"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.5">
+      <c r="A56" s="226" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="229"/>
+      <c r="D56" s="229"/>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="A57" s="226" t="s">
+        <v>444</v>
+      </c>
+      <c r="B57" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="229"/>
+      <c r="D57" s="229"/>
+    </row>
+    <row r="58" spans="1:4" ht="14" customHeight="1">
+      <c r="A58" s="226" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="229"/>
+      <c r="D58" s="229"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.5">
+      <c r="A59" s="226" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="229"/>
+      <c r="D59" s="229"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.5">
+      <c r="A60" s="226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="226" t="s">
+        <v>426</v>
+      </c>
+      <c r="B61" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="227">
         <v>-17259655.75</v>
       </c>
-      <c r="D46" s="228">
+      <c r="D61" s="227">
         <v>2563206.29</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="227" t="s">
-        <v>450</v>
-      </c>
-      <c r="B47" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="228">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D47" s="228">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.5">
-      <c r="A48" s="229" t="s">
-        <v>423</v>
-      </c>
-      <c r="B48" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="230"/>
-      <c r="D48" s="230"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.5">
-      <c r="A49" s="227" t="s">
-        <v>424</v>
-      </c>
-      <c r="B49" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="230"/>
-      <c r="D49" s="230"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.5">
-      <c r="A50" s="227" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="230"/>
-      <c r="D50" s="230"/>
-    </row>
-    <row r="51" spans="1:4" ht="14.5">
-      <c r="A51" s="227" t="s">
-        <v>426</v>
-      </c>
-      <c r="B51" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="230"/>
-      <c r="D51" s="230"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.5">
-      <c r="A52" s="227" t="s">
+    <row r="62" spans="1:4" ht="14.5">
+      <c r="A62" s="226" t="s">
         <v>427</v>
       </c>
-      <c r="B52" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C52" s="230"/>
-      <c r="D52" s="230"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="229" t="s">
-        <v>428</v>
-      </c>
-      <c r="B53" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="228">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D53" s="228">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
-      <c r="A54" s="227" t="s">
-        <v>429</v>
-      </c>
-      <c r="B54" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="230"/>
-      <c r="D54" s="230"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
-      <c r="A55" s="227" t="s">
-        <v>430</v>
-      </c>
-      <c r="B55" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="230"/>
-      <c r="D55" s="230"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.5">
-      <c r="A56" s="227" t="s">
-        <v>431</v>
-      </c>
-      <c r="B56" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="230"/>
-      <c r="D56" s="230"/>
-    </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
-      <c r="A57" s="227" t="s">
-        <v>451</v>
-      </c>
-      <c r="B57" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="230"/>
-      <c r="D57" s="230"/>
-    </row>
-    <row r="58" spans="1:4" ht="14" customHeight="1">
-      <c r="A58" s="227" t="s">
-        <v>452</v>
-      </c>
-      <c r="B58" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="230"/>
-      <c r="D58" s="230"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.5">
-      <c r="A59" s="227" t="s">
-        <v>432</v>
-      </c>
-      <c r="B59" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.5">
-      <c r="A60" s="227" t="s">
-        <v>453</v>
-      </c>
-      <c r="B60" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="230"/>
-      <c r="D60" s="230"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="227" t="s">
-        <v>433</v>
-      </c>
-      <c r="B61" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="228">
-        <v>-17259655.75</v>
-      </c>
-      <c r="D61" s="228">
-        <v>2563206.29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.5">
-      <c r="A62" s="227" t="s">
-        <v>434</v>
-      </c>
-      <c r="B62" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="230"/>
-      <c r="D62" s="230"/>
+      <c r="B62" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="229"/>
+      <c r="D62" s="229"/>
     </row>
     <row r="63" spans="1:4" ht="14" customHeight="1">
-      <c r="A63" s="227" t="s">
-        <v>454</v>
-      </c>
-      <c r="B63" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
+      <c r="A63" s="226" t="s">
+        <v>447</v>
+      </c>
+      <c r="B63" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="229"/>
+      <c r="D63" s="229"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="210" t="s">
-        <v>435</v>
-      </c>
-      <c r="B64" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" s="228">
+        <v>428</v>
+      </c>
+      <c r="B64" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="227">
         <v>-3064377132.8200002</v>
       </c>
-      <c r="D64" s="228">
+      <c r="D64" s="227">
         <v>-264592524.09</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="227" t="s">
-        <v>455</v>
-      </c>
-      <c r="B65" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="228">
+      <c r="A65" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="227">
         <v>-3064288026.5100002</v>
       </c>
-      <c r="D65" s="228">
+      <c r="D65" s="227">
         <v>-264592524.09</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.5">
-      <c r="A66" s="227" t="s">
-        <v>436</v>
-      </c>
-      <c r="B66" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="228">
+      <c r="A66" s="226" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="227">
         <v>-89106.31</v>
       </c>
-      <c r="D66" s="230"/>
+      <c r="D66" s="229"/>
     </row>
     <row r="67" spans="1:4" ht="14.5">
       <c r="A67" s="210" t="s">
-        <v>437</v>
-      </c>
-      <c r="B67" s="232" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="230"/>
-      <c r="D67" s="230"/>
+        <v>430</v>
+      </c>
+      <c r="B67" s="231" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="229"/>
+      <c r="D67" s="229"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="227" t="s">
-        <v>438</v>
-      </c>
-      <c r="B68" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="228">
+      <c r="A68" s="226" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="227">
         <v>-4.8906000000000001</v>
       </c>
-      <c r="D68" s="228">
+      <c r="D68" s="227">
         <v>-0.42849999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="227" t="s">
-        <v>439</v>
-      </c>
-      <c r="B69" s="231" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="228">
+      <c r="A69" s="226" t="s">
+        <v>432</v>
+      </c>
+      <c r="B69" s="230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="227">
         <v>-4.8906000000000001</v>
       </c>
-      <c r="D69" s="228">
+      <c r="D69" s="227">
         <v>-0.42849999999999999</v>
       </c>
     </row>
